--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 10:06:01</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 11:17:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 11:17:51</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 11:48:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225802.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 11:48:25</t>
+    <t>Informação extraída do SIGBM: 02/12/2022 - 11:58:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225802.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/12/2022 - 11:58:59</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 12:17:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 12:17:07</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 12:32:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 12:32:08</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 12:42:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 12:42:35</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 12:51:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 12:51:01</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 01:00:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 01:00:11</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 01:21:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 01:21:10</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 01:38:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 01:38:20</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 01:47:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 01:47:59</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 01:57:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 01:57:00</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 02:11:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 02:11:28</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 02:26:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 02:26:39</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 02:36:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 02:36:18</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 02:44:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 02:44:49</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 02:54:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 02:54:18</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 03:02:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 03:02:36</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 03:27:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 03:27:43</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 03:41:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 03:41:09</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 03:50:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 03:50:16</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 03:58:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 03:58:47</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 04:13:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 04:13:06</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 04:26:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 04:26:08</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 04:34:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 04:34:39</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 04:43:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 04:43:45</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 04:52:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 04:52:34</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 05:01:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 05:01:58</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 05:25:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 05:25:42</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 05:38:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 05:38:13</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 05:47:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 05:47:25</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 05:56:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 05:56:33</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 06:09:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 06:09:52</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 06:25:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 06:25:31</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 06:34:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 06:34:10</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 06:42:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 06:42:49</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 06:52:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 06:52:03</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 07:00:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 07:00:38</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 07:20:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 07:20:10</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 07:33:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 07:33:19</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 07:42:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 07:42:29</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 07:51:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 07:51:35</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 07:59:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 07:59:58</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 08:15:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 08:15:19</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 08:24:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 08:24:59</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 08:34:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 08:34:20</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 08:43:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 08:43:00</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 08:51:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 08:51:38</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 09:00:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 09:00:56</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 09:33:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 09:33:09</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 09:58:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 09:58:47</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 10:19:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 10:19:38</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 10:33:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 10:33:47</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 10:42:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 10:42:26</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 10:50:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 10:50:56</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 11:00:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 11:00:20</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 11:15:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 11:15:15</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 11:28:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 11:28:06</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 11:37:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 11:37:05</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 11:45:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 11:45:58</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 11:55:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 11:55:02</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 12:06:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 12:06:01</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 12:24:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 12:24:28</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 12:33:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 12:33:33</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 12:42:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 12:42:06</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 12:51:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 12:51:15</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 01:00:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 01:00:02</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 01:23:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 01:23:14</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 01:44:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 01:44:16</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 01:54:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 01:54:22</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 02:03:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 02:03:10</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 02:20:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 02:20:34</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 02:30:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 02:30:46</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 02:39:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 02:39:51</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 02:48:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 02:48:35</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 02:57:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 02:57:40</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 03:14:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 03:14:45</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 03:33:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 03:33:21</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 03:45:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 03:45:03</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 03:54:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 03:54:11</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 04:03:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 04:03:10</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 04:18:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 04:18:18</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 04:27:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 04:27:22</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 04:36:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 04:36:58</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 04:45:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 04:45:05</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 04:53:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 04:53:53</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 05:03:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 05:03:32</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 05:23:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 05:23:52</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 05:32:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 05:32:13</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 05:41:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 05:41:42</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 05:50:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 05:50:17</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 05:59:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 05:59:46</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 06:14:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 06:14:30</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 06:26:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 06:26:26</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 06:36:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 06:36:00</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 06:44:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 06:44:52</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 06:53:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 06:53:33</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 07:02:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 07:02:42</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 07:22:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 07:22:19</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 07:33:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 07:33:02</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 07:41:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 07:41:30</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 07:50:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 07:50:07</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 07:58:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 07:58:57</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 08:15:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 08:15:50</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 08:29:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 08:29:17</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 08:39:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 08:39:03</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 08:47:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-03.xlsx
+++ b/sigbm_download_2022-12-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 08:47:44</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 08:56:30</t>
   </si>
   <si>
     <t>ID Barragem</t>
